--- a/Data/Ant Farm/Ant_Farm_Setup.xlsx
+++ b/Data/Ant Farm/Ant_Farm_Setup.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyso\Documents\GitHub\Z.noltiiXinfauna\Data\Ant Farm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\Desktop\MARINE DESSERTATION\github\Z.noltiiXinfauna\Data\Ant Farm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F782B06-7235-4026-911B-3088316D6E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8820" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8820" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Ant_Farm_number</t>
   </si>
@@ -119,11 +118,47 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -407,23 +442,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.609375" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,16 +497,15 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f>_xlfn.CONCAT(A2:B2)</f>
-        <v xml:space="preserve">1A </v>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -480,16 +514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C14" si="0">_xlfn.CONCAT(A3:B3)</f>
-        <v>1B</v>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -498,16 +531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2A</v>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -516,16 +548,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2B</v>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -534,16 +565,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3A </v>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
@@ -552,16 +582,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>3B</v>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -570,16 +599,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>4A</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -588,16 +616,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>4B</v>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -606,16 +633,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">5A </v>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
@@ -624,16 +650,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>5B</v>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -642,16 +667,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6A</v>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -660,16 +684,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6B</v>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -678,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -687,2966 +710,2966 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
     </row>
-    <row r="410" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
     </row>
-    <row r="411" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
     </row>
-    <row r="412" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
     </row>
-    <row r="413" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
     </row>
-    <row r="414" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
     </row>
-    <row r="415" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
     </row>
-    <row r="416" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
     </row>
-    <row r="417" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
     </row>
-    <row r="418" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
     </row>
-    <row r="419" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
     </row>
-    <row r="420" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
     </row>
-    <row r="421" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
     </row>
-    <row r="422" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
     </row>
-    <row r="423" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
     </row>
-    <row r="424" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
     </row>
-    <row r="425" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
     </row>
-    <row r="426" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
     </row>
-    <row r="427" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
     </row>
-    <row r="428" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
     </row>
-    <row r="429" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
     </row>
-    <row r="430" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
     </row>
-    <row r="431" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
     </row>
-    <row r="432" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
     </row>
-    <row r="433" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
     </row>
-    <row r="434" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
     </row>
-    <row r="435" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
     </row>
-    <row r="436" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
     </row>
-    <row r="437" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
     </row>
-    <row r="438" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
     </row>
-    <row r="439" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
     </row>
-    <row r="440" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
     </row>
-    <row r="441" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
     </row>
-    <row r="442" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
     </row>
-    <row r="443" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
     </row>
-    <row r="444" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
     </row>
-    <row r="445" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
     </row>
-    <row r="446" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
     </row>
-    <row r="447" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
     </row>
-    <row r="448" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
     </row>
-    <row r="449" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
     </row>
-    <row r="450" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
     </row>
-    <row r="451" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
     </row>
-    <row r="452" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
     </row>
-    <row r="453" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
     </row>
-    <row r="454" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
     </row>
-    <row r="455" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
     </row>
-    <row r="456" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
     </row>
-    <row r="457" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
     </row>
-    <row r="458" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
     </row>
-    <row r="459" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
     </row>
-    <row r="460" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
     </row>
-    <row r="461" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
     </row>
-    <row r="462" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
     </row>
-    <row r="463" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
     </row>
-    <row r="464" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
     </row>
-    <row r="465" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
     </row>
-    <row r="466" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
     </row>
-    <row r="467" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
     </row>
-    <row r="468" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
     </row>
-    <row r="469" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
     </row>
-    <row r="470" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
     </row>
-    <row r="471" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
     </row>
-    <row r="472" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
     </row>
-    <row r="473" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
     </row>
-    <row r="474" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
     </row>
-    <row r="475" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
     </row>
-    <row r="476" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
     </row>
-    <row r="477" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
     </row>
-    <row r="478" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
     </row>
-    <row r="479" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
     </row>
-    <row r="480" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
     </row>
-    <row r="481" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
     </row>
-    <row r="482" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
     </row>
-    <row r="483" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
     </row>
-    <row r="484" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
     </row>
-    <row r="485" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
     </row>
-    <row r="486" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
     </row>
-    <row r="487" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
     </row>
-    <row r="488" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
     </row>
-    <row r="489" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
     </row>
-    <row r="490" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
     </row>
-    <row r="491" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
     </row>
-    <row r="492" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
     </row>
-    <row r="493" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
     </row>
-    <row r="494" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
     </row>
-    <row r="495" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
     </row>
-    <row r="496" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
     </row>
-    <row r="497" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
     </row>
-    <row r="498" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
     </row>
-    <row r="499" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
     </row>
-    <row r="500" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
     </row>
-    <row r="501" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
     </row>
-    <row r="502" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
     </row>
-    <row r="503" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
     </row>
-    <row r="504" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
     </row>
-    <row r="505" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
     </row>
-    <row r="506" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
     </row>
-    <row r="507" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
     </row>
-    <row r="508" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
     </row>
-    <row r="509" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
     </row>
-    <row r="510" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
     </row>
-    <row r="511" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
     </row>
-    <row r="512" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
     </row>
-    <row r="513" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
     </row>
-    <row r="514" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
     </row>
-    <row r="515" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
     </row>
-    <row r="516" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
     </row>
-    <row r="517" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
     </row>
-    <row r="518" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
     </row>
-    <row r="519" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
     </row>
-    <row r="520" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
     </row>
-    <row r="521" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
     </row>
-    <row r="522" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
     </row>
-    <row r="523" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
     </row>
-    <row r="524" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
     </row>
-    <row r="525" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
     </row>
-    <row r="526" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
     </row>
-    <row r="527" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
     </row>
-    <row r="528" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
     </row>
-    <row r="529" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
     </row>
-    <row r="530" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
     </row>
-    <row r="531" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
     </row>
-    <row r="532" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
     </row>
-    <row r="533" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
     </row>
-    <row r="534" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
     </row>
-    <row r="535" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
     </row>
-    <row r="536" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
     </row>
-    <row r="537" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
     </row>
-    <row r="538" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
     </row>
-    <row r="539" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
     </row>
-    <row r="540" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
     </row>
-    <row r="541" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
     </row>
-    <row r="542" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
     </row>
-    <row r="543" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
     </row>
-    <row r="544" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
     </row>
-    <row r="545" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
     </row>
-    <row r="546" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
     </row>
-    <row r="547" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
     </row>
-    <row r="548" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
     </row>
-    <row r="549" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
     </row>
-    <row r="550" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
     </row>
-    <row r="551" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
     </row>
-    <row r="552" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
     </row>
-    <row r="553" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
     </row>
-    <row r="554" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
     </row>
-    <row r="555" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
     </row>
-    <row r="556" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
     </row>
-    <row r="557" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
     </row>
-    <row r="558" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
     </row>
-    <row r="559" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
     </row>
-    <row r="560" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
     </row>
-    <row r="561" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
     </row>
-    <row r="562" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
     </row>
-    <row r="563" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
     </row>
-    <row r="564" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
     </row>
-    <row r="565" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
     </row>
-    <row r="566" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
     </row>
-    <row r="567" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
     </row>
-    <row r="568" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
     </row>
-    <row r="569" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
     </row>
-    <row r="570" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
     </row>
-    <row r="571" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
     </row>
-    <row r="572" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
     </row>
-    <row r="573" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
     </row>
-    <row r="574" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
     </row>
-    <row r="575" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
     </row>
-    <row r="576" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
     </row>
-    <row r="577" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
     </row>
-    <row r="578" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
     </row>
-    <row r="579" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
     </row>
-    <row r="580" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
     </row>
-    <row r="581" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
     </row>
-    <row r="582" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
     </row>
-    <row r="583" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
     </row>
-    <row r="584" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
     </row>
-    <row r="585" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
     </row>
-    <row r="586" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
     </row>
-    <row r="587" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
     </row>
-    <row r="588" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
     </row>
-    <row r="589" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
     </row>
-    <row r="590" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
     </row>
-    <row r="591" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
     </row>
-    <row r="592" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
     </row>
-    <row r="593" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
     </row>
-    <row r="594" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
     </row>
-    <row r="595" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
     </row>
-    <row r="596" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
     </row>
-    <row r="597" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
     </row>
-    <row r="598" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
     </row>
-    <row r="599" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
     </row>
-    <row r="600" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
     </row>
-    <row r="601" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
     </row>
-    <row r="602" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
     </row>
-    <row r="603" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
     </row>
-    <row r="604" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
     </row>
-    <row r="605" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
     </row>
-    <row r="606" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
     </row>
-    <row r="607" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
     </row>
-    <row r="608" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
     </row>
-    <row r="609" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
     </row>
-    <row r="610" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
     </row>
-    <row r="611" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
     </row>
-    <row r="612" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
     </row>
-    <row r="613" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
     </row>
-    <row r="614" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
     </row>
-    <row r="615" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
     </row>
-    <row r="616" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
     </row>
-    <row r="617" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
     </row>
-    <row r="618" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
     </row>
-    <row r="619" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
     </row>
-    <row r="620" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
     </row>
-    <row r="621" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
     </row>
-    <row r="622" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
     </row>
-    <row r="623" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
     </row>
-    <row r="624" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
     </row>
-    <row r="625" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
     </row>
-    <row r="626" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
     </row>
-    <row r="627" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
     </row>
-    <row r="628" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
     </row>
-    <row r="629" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
     </row>
-    <row r="630" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
     </row>
-    <row r="631" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
     </row>
-    <row r="632" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
     </row>
-    <row r="633" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
     </row>
-    <row r="634" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
     </row>
-    <row r="635" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
     </row>
-    <row r="636" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
     </row>
-    <row r="637" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
     </row>
-    <row r="638" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
     </row>
-    <row r="639" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
     </row>
-    <row r="640" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
     </row>
-    <row r="641" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
     </row>
-    <row r="642" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
     </row>
-    <row r="643" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
     </row>
-    <row r="644" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
     </row>
-    <row r="645" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
     </row>
-    <row r="646" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
     </row>
-    <row r="647" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
     </row>
-    <row r="648" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
     </row>
-    <row r="649" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
     </row>
-    <row r="650" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
     </row>
-    <row r="651" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
     </row>
-    <row r="652" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
     </row>
-    <row r="653" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
     </row>
-    <row r="654" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
     </row>
-    <row r="655" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
     </row>
-    <row r="656" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
     </row>
-    <row r="657" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
     </row>
-    <row r="658" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
     </row>
-    <row r="659" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
     </row>
-    <row r="660" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
     </row>
-    <row r="661" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
     </row>
-    <row r="662" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
     </row>
-    <row r="663" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
     </row>
-    <row r="664" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
     </row>
-    <row r="665" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
     </row>
-    <row r="666" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
     </row>
-    <row r="667" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
     </row>
-    <row r="668" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
     </row>
-    <row r="669" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
     </row>
-    <row r="670" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
     </row>
-    <row r="671" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
     </row>
-    <row r="672" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
     </row>
-    <row r="673" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
     </row>
-    <row r="674" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
     </row>
-    <row r="675" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
     </row>
-    <row r="676" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
     </row>
-    <row r="677" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
     </row>
-    <row r="678" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
     </row>
-    <row r="679" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
     </row>
-    <row r="680" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
     </row>
-    <row r="681" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
     </row>
-    <row r="682" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
     </row>
-    <row r="683" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
     </row>
-    <row r="684" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
     </row>
-    <row r="685" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
     </row>
-    <row r="686" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
     </row>
-    <row r="687" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
     </row>
-    <row r="688" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
     </row>
-    <row r="689" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
     </row>
-    <row r="690" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
     </row>
-    <row r="691" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
     </row>
-    <row r="692" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
     </row>
-    <row r="693" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
     </row>
-    <row r="694" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
     </row>
-    <row r="695" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
     </row>
-    <row r="696" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
     </row>
-    <row r="697" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
     </row>
-    <row r="698" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
     </row>
-    <row r="699" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
     </row>
-    <row r="700" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
     </row>
-    <row r="701" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
     </row>
-    <row r="702" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
     </row>
-    <row r="703" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
     </row>
-    <row r="704" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
     </row>
-    <row r="705" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
     </row>
-    <row r="706" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
     </row>
-    <row r="707" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
     </row>
-    <row r="708" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
     </row>
-    <row r="709" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
     </row>
-    <row r="710" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
     </row>
-    <row r="711" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
     </row>
-    <row r="712" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
     </row>
-    <row r="713" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
     </row>
-    <row r="714" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
     </row>
-    <row r="715" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
     </row>
-    <row r="716" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
     </row>
-    <row r="717" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
     </row>
-    <row r="718" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
     </row>
-    <row r="719" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
     </row>
-    <row r="720" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
     </row>
-    <row r="721" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
     </row>
-    <row r="722" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
     </row>
-    <row r="723" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
     </row>
-    <row r="724" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
     </row>
-    <row r="725" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
     </row>
-    <row r="726" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
     </row>
-    <row r="727" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
     </row>
-    <row r="728" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
     </row>
-    <row r="729" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
     </row>
-    <row r="730" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
     </row>
-    <row r="731" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
     </row>
-    <row r="732" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
     </row>
-    <row r="733" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
     </row>
-    <row r="734" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
     </row>
-    <row r="735" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
     </row>
-    <row r="736" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
     </row>
-    <row r="737" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
     </row>
-    <row r="738" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
     </row>
-    <row r="739" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
     </row>
-    <row r="740" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
     </row>
-    <row r="741" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
     </row>
-    <row r="742" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
     </row>
-    <row r="743" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
     </row>
-    <row r="744" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
     </row>
-    <row r="745" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
     </row>
-    <row r="746" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
     </row>
-    <row r="747" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
     </row>
-    <row r="748" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
     </row>
-    <row r="749" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
     </row>
-    <row r="750" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
     </row>
-    <row r="751" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
     </row>
-    <row r="752" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
     </row>
-    <row r="753" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
     </row>
-    <row r="754" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
     </row>
-    <row r="755" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
     </row>
-    <row r="756" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
     </row>
-    <row r="757" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
     </row>
-    <row r="758" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
     </row>
-    <row r="759" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
     </row>
-    <row r="760" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
     </row>
-    <row r="761" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
     </row>
-    <row r="762" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
     </row>
-    <row r="763" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
     </row>
-    <row r="764" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
     </row>
-    <row r="765" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
     </row>
-    <row r="766" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
     </row>
-    <row r="767" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
     </row>
-    <row r="768" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
     </row>
-    <row r="769" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
     </row>
-    <row r="770" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
     </row>
-    <row r="771" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
     </row>
-    <row r="772" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
     </row>
-    <row r="773" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
     </row>
-    <row r="774" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
     </row>
-    <row r="775" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
     </row>
-    <row r="776" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
     </row>
-    <row r="777" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
     </row>
-    <row r="778" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
     </row>
-    <row r="779" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
     </row>
-    <row r="780" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
     </row>
-    <row r="781" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
     </row>
-    <row r="782" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
     </row>
-    <row r="783" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
     </row>
-    <row r="784" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
     </row>
-    <row r="785" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
     </row>
-    <row r="786" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
     </row>
-    <row r="787" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
     </row>
-    <row r="788" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
     </row>
-    <row r="789" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
     </row>
-    <row r="790" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
     </row>
-    <row r="791" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
     </row>
-    <row r="792" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
     </row>
-    <row r="793" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
     </row>
-    <row r="794" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
     </row>
-    <row r="795" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
     </row>
-    <row r="796" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
     </row>
-    <row r="797" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
     </row>
-    <row r="798" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
     </row>
-    <row r="799" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
     </row>
-    <row r="800" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
     </row>
-    <row r="801" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
     </row>
-    <row r="802" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
     </row>
-    <row r="803" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
     </row>
-    <row r="804" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
     </row>
-    <row r="805" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
     </row>
-    <row r="806" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
     </row>
-    <row r="807" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
     </row>
-    <row r="808" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
     </row>
-    <row r="809" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
     </row>
-    <row r="810" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
     </row>
-    <row r="811" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
     </row>
-    <row r="812" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
     </row>
-    <row r="813" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
     </row>
-    <row r="814" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
     </row>
-    <row r="815" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
     </row>
-    <row r="816" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
     </row>
-    <row r="817" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
     </row>
-    <row r="818" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
     </row>
-    <row r="819" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
     </row>
-    <row r="820" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
     </row>
-    <row r="821" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
     </row>
-    <row r="822" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
     </row>
-    <row r="823" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
     </row>
-    <row r="824" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
     </row>
-    <row r="825" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
     </row>
-    <row r="826" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
     </row>
-    <row r="827" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
     </row>
-    <row r="828" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
     </row>
-    <row r="829" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
     </row>
-    <row r="830" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
     </row>
-    <row r="831" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
     </row>
-    <row r="832" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
     </row>
-    <row r="833" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
     </row>
-    <row r="834" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
     </row>
-    <row r="835" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
     </row>
-    <row r="836" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
     </row>
-    <row r="837" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
     </row>
-    <row r="838" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
     </row>
-    <row r="839" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
     </row>
-    <row r="840" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
     </row>
-    <row r="841" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
     </row>
-    <row r="842" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
     </row>
-    <row r="843" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
     </row>
-    <row r="844" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
     </row>
-    <row r="845" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
     </row>
-    <row r="846" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
     </row>
-    <row r="847" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
     </row>
-    <row r="848" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
     </row>
-    <row r="849" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
     </row>
-    <row r="850" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
     </row>
-    <row r="851" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
     </row>
-    <row r="852" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
     </row>
-    <row r="853" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
     </row>
-    <row r="854" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
     </row>
-    <row r="855" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
     </row>
-    <row r="856" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
     </row>
-    <row r="857" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
     </row>
-    <row r="858" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
     </row>
-    <row r="859" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
     </row>
-    <row r="860" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
     </row>
-    <row r="861" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
     </row>
-    <row r="862" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
     </row>
-    <row r="863" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
     </row>
-    <row r="864" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
     </row>
-    <row r="865" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
     </row>
-    <row r="866" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
     </row>
-    <row r="867" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
     </row>
-    <row r="868" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
     </row>
-    <row r="869" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
     </row>
-    <row r="870" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
     </row>
-    <row r="871" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
     </row>
-    <row r="872" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
     </row>
-    <row r="873" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
     </row>
-    <row r="874" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
     </row>
-    <row r="875" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
     </row>
-    <row r="876" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
     </row>
-    <row r="877" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
     </row>
-    <row r="878" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
     </row>
-    <row r="879" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
     </row>
-    <row r="880" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
     </row>
-    <row r="881" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
     </row>
-    <row r="882" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
     </row>
-    <row r="883" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
     </row>
-    <row r="884" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
     </row>
-    <row r="885" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
     </row>
-    <row r="886" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
     </row>
-    <row r="887" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
     </row>
-    <row r="888" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
     </row>
-    <row r="889" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
     </row>
-    <row r="890" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
     </row>
-    <row r="891" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
     </row>
-    <row r="892" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
     </row>
-    <row r="893" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
     </row>
-    <row r="894" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
     </row>
-    <row r="895" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
     </row>
-    <row r="896" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
     </row>
-    <row r="897" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
     </row>
-    <row r="898" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
     </row>
-    <row r="899" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
     </row>
-    <row r="900" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
     </row>
-    <row r="901" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
     </row>
-    <row r="902" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
     </row>
-    <row r="903" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
     </row>
-    <row r="904" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
     </row>
-    <row r="905" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
     </row>
-    <row r="906" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
     </row>
-    <row r="907" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
     </row>
-    <row r="908" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
     </row>
-    <row r="909" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
     </row>
-    <row r="910" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
     </row>
-    <row r="911" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
     </row>
-    <row r="912" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
     </row>
-    <row r="913" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
     </row>
-    <row r="914" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
     </row>
-    <row r="915" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
     </row>
-    <row r="916" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
     </row>
-    <row r="917" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
     </row>
-    <row r="918" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
     </row>
-    <row r="919" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
     </row>
-    <row r="920" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
     </row>
-    <row r="921" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
     </row>
-    <row r="922" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
     </row>
-    <row r="923" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
     </row>
-    <row r="924" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
     </row>
-    <row r="925" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
     </row>
-    <row r="926" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
     </row>
-    <row r="927" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
     </row>
-    <row r="928" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
     </row>
-    <row r="929" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
     </row>
-    <row r="930" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
     </row>
-    <row r="931" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
     </row>
-    <row r="932" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
     </row>
-    <row r="933" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
     </row>
-    <row r="934" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
     </row>
-    <row r="935" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
     </row>
-    <row r="936" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
     </row>
-    <row r="937" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
     </row>
-    <row r="938" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
     </row>
-    <row r="939" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
     </row>
-    <row r="940" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
     </row>
-    <row r="941" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
     </row>
-    <row r="942" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
     </row>
-    <row r="943" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
     </row>
-    <row r="944" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
     </row>
-    <row r="945" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
     </row>
-    <row r="946" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
     </row>
-    <row r="947" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
     </row>
-    <row r="948" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
     </row>
-    <row r="949" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
     </row>
-    <row r="950" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
     </row>
-    <row r="951" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
     </row>
-    <row r="952" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
     </row>
-    <row r="953" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
     </row>
-    <row r="954" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
     </row>
-    <row r="955" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
     </row>
-    <row r="956" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
     </row>
-    <row r="957" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
     </row>
-    <row r="958" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
     </row>
-    <row r="959" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
     </row>
-    <row r="960" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
     </row>
-    <row r="961" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
     </row>
-    <row r="962" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
     </row>
-    <row r="963" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
     </row>
-    <row r="964" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
     </row>
-    <row r="965" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
     </row>
-    <row r="966" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
     </row>
-    <row r="967" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
     </row>
-    <row r="968" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
     </row>
-    <row r="969" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
     </row>
-    <row r="970" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
     </row>
-    <row r="971" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
     </row>
-    <row r="972" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
     </row>
-    <row r="973" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
     </row>
-    <row r="974" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
     </row>
-    <row r="975" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
     </row>
-    <row r="976" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
     </row>
-    <row r="977" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
     </row>
-    <row r="978" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
     </row>
-    <row r="979" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
     </row>
-    <row r="980" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
     </row>
-    <row r="981" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
     </row>
-    <row r="982" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
     </row>
-    <row r="983" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
     </row>
-    <row r="984" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
     </row>
-    <row r="985" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
     </row>
-    <row r="986" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
     </row>
-    <row r="987" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
     </row>
-    <row r="988" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
     </row>
-    <row r="989" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
     </row>
-    <row r="990" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
     </row>
-    <row r="991" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
     </row>
-    <row r="992" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
     </row>
-    <row r="993" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
     </row>
-    <row r="994" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
     </row>
-    <row r="995" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
     </row>
-    <row r="996" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
     </row>
-    <row r="997" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
     </row>
-    <row r="998" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
     </row>
-    <row r="999" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
     </row>
   </sheetData>
@@ -3655,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3663,12 +3686,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -3706,7 +3729,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3723,7 +3746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +3780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3771,2989 +3794,2989 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="88" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="96" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="113" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="114" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="115" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="116" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="117" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="118" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="119" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="120" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="121" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="124" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="125" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="126" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="127" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="128" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="140" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="142" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="143" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="144" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="145" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="146" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="147" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="148" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="149" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="150" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="151" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="152" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="153" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="154" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="155" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="156" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="157" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="158" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="159" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="160" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="161" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="162" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="163" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="164" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="165" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="166" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="167" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="168" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="169" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="170" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="171" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="172" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="173" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="174" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="175" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="176" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="177" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="178" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="179" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="180" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="181" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="182" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="183" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="184" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="185" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="186" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="187" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="188" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D188" s="7"/>
     </row>
-    <row r="189" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="189" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D189" s="7"/>
     </row>
-    <row r="190" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="190" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D190" s="7"/>
     </row>
-    <row r="191" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="191" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D191" s="7"/>
     </row>
-    <row r="192" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="192" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D192" s="7"/>
     </row>
-    <row r="193" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="193" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D193" s="7"/>
     </row>
-    <row r="194" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="194" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D194" s="7"/>
     </row>
-    <row r="195" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="195" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D195" s="7"/>
     </row>
-    <row r="196" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="196" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D196" s="7"/>
     </row>
-    <row r="197" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="197" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D197" s="7"/>
     </row>
-    <row r="198" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="198" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D198" s="7"/>
     </row>
-    <row r="199" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="199" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D199" s="7"/>
     </row>
-    <row r="200" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="200" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D200" s="7"/>
     </row>
-    <row r="201" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="201" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D201" s="7"/>
     </row>
-    <row r="202" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="202" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D202" s="7"/>
     </row>
-    <row r="203" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="203" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D203" s="7"/>
     </row>
-    <row r="204" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="204" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D204" s="7"/>
     </row>
-    <row r="205" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="205" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D205" s="7"/>
     </row>
-    <row r="206" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="206" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D206" s="7"/>
     </row>
-    <row r="207" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="207" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D207" s="7"/>
     </row>
-    <row r="208" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="208" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D208" s="7"/>
     </row>
-    <row r="209" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="209" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D209" s="7"/>
     </row>
-    <row r="210" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="210" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D210" s="7"/>
     </row>
-    <row r="211" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="211" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D211" s="7"/>
     </row>
-    <row r="212" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="212" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D212" s="7"/>
     </row>
-    <row r="213" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="213" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D213" s="7"/>
     </row>
-    <row r="214" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="214" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D214" s="7"/>
     </row>
-    <row r="215" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="215" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D215" s="7"/>
     </row>
-    <row r="216" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="216" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D216" s="7"/>
     </row>
-    <row r="217" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="217" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D217" s="7"/>
     </row>
-    <row r="218" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="218" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D218" s="7"/>
     </row>
-    <row r="219" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="219" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D219" s="7"/>
     </row>
-    <row r="220" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="220" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D220" s="7"/>
     </row>
-    <row r="221" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="221" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D221" s="7"/>
     </row>
-    <row r="222" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="222" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D222" s="7"/>
     </row>
-    <row r="223" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="223" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D223" s="7"/>
     </row>
-    <row r="224" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="224" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D224" s="7"/>
     </row>
-    <row r="225" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="225" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D225" s="7"/>
     </row>
-    <row r="226" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="226" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D226" s="7"/>
     </row>
-    <row r="227" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="227" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D227" s="7"/>
     </row>
-    <row r="228" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="228" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D228" s="7"/>
     </row>
-    <row r="229" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="229" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D229" s="7"/>
     </row>
-    <row r="230" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="230" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D230" s="7"/>
     </row>
-    <row r="231" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="231" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D231" s="7"/>
     </row>
-    <row r="232" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="232" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D232" s="7"/>
     </row>
-    <row r="233" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="233" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D233" s="7"/>
     </row>
-    <row r="234" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="234" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D234" s="7"/>
     </row>
-    <row r="235" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="235" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D235" s="7"/>
     </row>
-    <row r="236" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="236" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D236" s="7"/>
     </row>
-    <row r="237" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="237" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D237" s="7"/>
     </row>
-    <row r="238" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="238" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D238" s="7"/>
     </row>
-    <row r="239" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="239" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D239" s="7"/>
     </row>
-    <row r="240" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="240" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D240" s="7"/>
     </row>
-    <row r="241" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="241" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D241" s="7"/>
     </row>
-    <row r="242" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="242" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D242" s="7"/>
     </row>
-    <row r="243" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="243" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D243" s="7"/>
     </row>
-    <row r="244" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="244" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D244" s="7"/>
     </row>
-    <row r="245" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="245" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D245" s="7"/>
     </row>
-    <row r="246" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="246" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D246" s="7"/>
     </row>
-    <row r="247" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="247" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="248" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D248" s="7"/>
     </row>
-    <row r="249" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="249" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D249" s="7"/>
     </row>
-    <row r="250" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="250" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="251" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="252" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="253" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="254" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="255" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="256" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="257" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="258" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="259" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="260" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="261" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="262" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="263" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="264" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="265" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="266" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="267" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="268" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="269" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="270" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="271" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="272" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="273" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="274" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="275" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="276" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="277" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="278" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="279" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="280" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="281" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="282" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="283" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="284" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="285" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="286" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="287" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="288" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D288" s="7"/>
     </row>
-    <row r="289" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="289" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D289" s="7"/>
     </row>
-    <row r="290" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="290" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D290" s="7"/>
     </row>
-    <row r="291" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="291" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D291" s="7"/>
     </row>
-    <row r="292" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="292" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D292" s="7"/>
     </row>
-    <row r="293" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="293" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D293" s="7"/>
     </row>
-    <row r="294" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="294" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D294" s="7"/>
     </row>
-    <row r="295" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="295" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D295" s="7"/>
     </row>
-    <row r="296" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="296" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D296" s="7"/>
     </row>
-    <row r="297" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="297" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D297" s="7"/>
     </row>
-    <row r="298" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="298" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D298" s="7"/>
     </row>
-    <row r="299" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="299" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D299" s="7"/>
     </row>
-    <row r="300" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="300" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D300" s="7"/>
     </row>
-    <row r="301" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="301" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D301" s="7"/>
     </row>
-    <row r="302" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="302" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D302" s="7"/>
     </row>
-    <row r="303" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="303" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D303" s="7"/>
     </row>
-    <row r="304" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="304" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D304" s="7"/>
     </row>
-    <row r="305" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="305" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D305" s="7"/>
     </row>
-    <row r="306" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="306" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D306" s="7"/>
     </row>
-    <row r="307" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="307" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D307" s="7"/>
     </row>
-    <row r="308" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="308" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D308" s="7"/>
     </row>
-    <row r="309" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="309" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D309" s="7"/>
     </row>
-    <row r="310" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="310" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D310" s="7"/>
     </row>
-    <row r="311" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="311" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D311" s="7"/>
     </row>
-    <row r="312" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="312" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="313" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D313" s="7"/>
     </row>
-    <row r="314" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="314" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D314" s="7"/>
     </row>
-    <row r="315" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="315" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D315" s="7"/>
     </row>
-    <row r="316" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="316" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D316" s="7"/>
     </row>
-    <row r="317" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="317" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D317" s="7"/>
     </row>
-    <row r="318" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="318" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D318" s="7"/>
     </row>
-    <row r="319" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="319" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D319" s="7"/>
     </row>
-    <row r="320" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="320" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D320" s="7"/>
     </row>
-    <row r="321" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="321" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D321" s="7"/>
     </row>
-    <row r="322" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="322" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D322" s="7"/>
     </row>
-    <row r="323" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="323" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D323" s="7"/>
     </row>
-    <row r="324" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="324" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D324" s="7"/>
     </row>
-    <row r="325" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="325" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D325" s="7"/>
     </row>
-    <row r="326" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="326" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D326" s="7"/>
     </row>
-    <row r="327" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="327" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D327" s="7"/>
     </row>
-    <row r="328" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="328" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="329" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D329" s="7"/>
     </row>
-    <row r="330" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="330" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D330" s="7"/>
     </row>
-    <row r="331" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="331" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D331" s="7"/>
     </row>
-    <row r="332" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="332" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D332" s="7"/>
     </row>
-    <row r="333" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="333" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D333" s="7"/>
     </row>
-    <row r="334" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="334" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D334" s="7"/>
     </row>
-    <row r="335" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="335" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D335" s="7"/>
     </row>
-    <row r="336" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="336" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D336" s="7"/>
     </row>
-    <row r="337" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="337" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D337" s="7"/>
     </row>
-    <row r="338" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="338" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D338" s="7"/>
     </row>
-    <row r="339" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="339" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D339" s="7"/>
     </row>
-    <row r="340" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="340" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D340" s="7"/>
     </row>
-    <row r="341" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="341" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D341" s="7"/>
     </row>
-    <row r="342" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="342" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D342" s="7"/>
     </row>
-    <row r="343" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="343" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D343" s="7"/>
     </row>
-    <row r="344" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="344" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D344" s="7"/>
     </row>
-    <row r="345" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="345" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D345" s="7"/>
     </row>
-    <row r="346" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="346" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D346" s="7"/>
     </row>
-    <row r="347" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="347" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D347" s="7"/>
     </row>
-    <row r="348" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="348" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D348" s="7"/>
     </row>
-    <row r="349" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="349" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D349" s="7"/>
     </row>
-    <row r="350" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="350" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D350" s="7"/>
     </row>
-    <row r="351" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="351" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D351" s="7"/>
     </row>
-    <row r="352" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="352" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D352" s="7"/>
     </row>
-    <row r="353" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="353" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D353" s="7"/>
     </row>
-    <row r="354" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="354" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D354" s="7"/>
     </row>
-    <row r="355" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="355" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D355" s="7"/>
     </row>
-    <row r="356" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="356" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D356" s="7"/>
     </row>
-    <row r="357" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="357" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D357" s="7"/>
     </row>
-    <row r="358" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="358" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D358" s="7"/>
     </row>
-    <row r="359" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="359" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D359" s="7"/>
     </row>
-    <row r="360" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="360" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D360" s="7"/>
     </row>
-    <row r="361" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="361" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D361" s="7"/>
     </row>
-    <row r="362" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="362" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D362" s="7"/>
     </row>
-    <row r="363" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="363" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D363" s="7"/>
     </row>
-    <row r="364" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="364" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D364" s="7"/>
     </row>
-    <row r="365" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="365" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D365" s="7"/>
     </row>
-    <row r="366" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="366" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D366" s="7"/>
     </row>
-    <row r="367" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="367" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D367" s="7"/>
     </row>
-    <row r="368" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="368" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D368" s="7"/>
     </row>
-    <row r="369" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="369" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D369" s="7"/>
     </row>
-    <row r="370" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="370" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D370" s="7"/>
     </row>
-    <row r="371" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="371" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D371" s="7"/>
     </row>
-    <row r="372" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="372" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D372" s="7"/>
     </row>
-    <row r="373" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="373" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D373" s="7"/>
     </row>
-    <row r="374" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="374" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D374" s="7"/>
     </row>
-    <row r="375" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="375" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D375" s="7"/>
     </row>
-    <row r="376" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="376" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D376" s="7"/>
     </row>
-    <row r="377" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="377" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D377" s="7"/>
     </row>
-    <row r="378" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="378" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D378" s="7"/>
     </row>
-    <row r="379" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="379" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D379" s="7"/>
     </row>
-    <row r="380" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="380" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D380" s="7"/>
     </row>
-    <row r="381" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="381" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D381" s="7"/>
     </row>
-    <row r="382" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="382" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D382" s="7"/>
     </row>
-    <row r="383" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="383" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D383" s="7"/>
     </row>
-    <row r="384" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="384" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D384" s="7"/>
     </row>
-    <row r="385" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="385" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D385" s="7"/>
     </row>
-    <row r="386" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="386" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D386" s="7"/>
     </row>
-    <row r="387" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="387" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D387" s="7"/>
     </row>
-    <row r="388" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="388" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D388" s="7"/>
     </row>
-    <row r="389" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="389" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D389" s="7"/>
     </row>
-    <row r="390" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="390" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D390" s="7"/>
     </row>
-    <row r="391" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="391" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D391" s="7"/>
     </row>
-    <row r="392" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="392" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D392" s="7"/>
     </row>
-    <row r="393" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="393" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D393" s="7"/>
     </row>
-    <row r="394" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="394" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D394" s="7"/>
     </row>
-    <row r="395" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="395" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D395" s="7"/>
     </row>
-    <row r="396" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="396" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D396" s="7"/>
     </row>
-    <row r="397" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="397" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D397" s="7"/>
     </row>
-    <row r="398" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="398" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D398" s="7"/>
     </row>
-    <row r="399" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="399" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D399" s="7"/>
     </row>
-    <row r="400" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="400" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D400" s="7"/>
     </row>
-    <row r="401" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="401" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D401" s="7"/>
     </row>
-    <row r="402" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="402" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D402" s="7"/>
     </row>
-    <row r="403" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="403" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D403" s="7"/>
     </row>
-    <row r="404" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="404" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D404" s="7"/>
     </row>
-    <row r="405" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="405" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D405" s="7"/>
     </row>
-    <row r="406" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="406" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D406" s="7"/>
     </row>
-    <row r="407" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="407" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D407" s="7"/>
     </row>
-    <row r="408" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="408" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D408" s="7"/>
     </row>
-    <row r="409" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="409" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D409" s="7"/>
     </row>
-    <row r="410" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="410" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D410" s="7"/>
     </row>
-    <row r="411" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="411" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D411" s="7"/>
     </row>
-    <row r="412" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="412" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D412" s="7"/>
     </row>
-    <row r="413" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="413" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D413" s="7"/>
     </row>
-    <row r="414" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="414" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D414" s="7"/>
     </row>
-    <row r="415" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="415" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D415" s="7"/>
     </row>
-    <row r="416" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="416" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D416" s="7"/>
     </row>
-    <row r="417" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="417" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D417" s="7"/>
     </row>
-    <row r="418" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="418" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D418" s="7"/>
     </row>
-    <row r="419" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="419" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D419" s="7"/>
     </row>
-    <row r="420" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="420" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D420" s="7"/>
     </row>
-    <row r="421" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="421" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D421" s="7"/>
     </row>
-    <row r="422" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="422" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D422" s="7"/>
     </row>
-    <row r="423" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="423" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D423" s="7"/>
     </row>
-    <row r="424" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="424" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D424" s="7"/>
     </row>
-    <row r="425" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="425" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D425" s="7"/>
     </row>
-    <row r="426" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="426" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D426" s="7"/>
     </row>
-    <row r="427" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="427" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D427" s="7"/>
     </row>
-    <row r="428" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="428" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D428" s="7"/>
     </row>
-    <row r="429" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="429" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D429" s="7"/>
     </row>
-    <row r="430" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="430" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D430" s="7"/>
     </row>
-    <row r="431" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="431" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D431" s="7"/>
     </row>
-    <row r="432" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="432" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D432" s="7"/>
     </row>
-    <row r="433" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="433" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D433" s="7"/>
     </row>
-    <row r="434" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="434" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D434" s="7"/>
     </row>
-    <row r="435" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="435" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D435" s="7"/>
     </row>
-    <row r="436" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="436" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D436" s="7"/>
     </row>
-    <row r="437" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="437" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D437" s="7"/>
     </row>
-    <row r="438" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="438" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D438" s="7"/>
     </row>
-    <row r="439" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="439" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D439" s="7"/>
     </row>
-    <row r="440" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="440" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D440" s="7"/>
     </row>
-    <row r="441" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="441" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D441" s="7"/>
     </row>
-    <row r="442" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="442" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D442" s="7"/>
     </row>
-    <row r="443" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="443" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D443" s="7"/>
     </row>
-    <row r="444" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="444" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D444" s="7"/>
     </row>
-    <row r="445" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="445" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D445" s="7"/>
     </row>
-    <row r="446" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="446" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D446" s="7"/>
     </row>
-    <row r="447" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="447" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D447" s="7"/>
     </row>
-    <row r="448" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="448" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D448" s="7"/>
     </row>
-    <row r="449" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="449" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D449" s="7"/>
     </row>
-    <row r="450" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="450" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D450" s="7"/>
     </row>
-    <row r="451" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="451" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D451" s="7"/>
     </row>
-    <row r="452" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="452" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D452" s="7"/>
     </row>
-    <row r="453" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="453" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D453" s="7"/>
     </row>
-    <row r="454" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="454" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D454" s="7"/>
     </row>
-    <row r="455" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="455" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D455" s="7"/>
     </row>
-    <row r="456" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="456" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D456" s="7"/>
     </row>
-    <row r="457" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="457" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D457" s="7"/>
     </row>
-    <row r="458" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="458" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D458" s="7"/>
     </row>
-    <row r="459" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="459" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D459" s="7"/>
     </row>
-    <row r="460" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="460" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D460" s="7"/>
     </row>
-    <row r="461" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="461" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D461" s="7"/>
     </row>
-    <row r="462" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="462" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D462" s="7"/>
     </row>
-    <row r="463" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="463" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D463" s="7"/>
     </row>
-    <row r="464" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="464" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D464" s="7"/>
     </row>
-    <row r="465" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="465" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D465" s="7"/>
     </row>
-    <row r="466" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="466" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D466" s="7"/>
     </row>
-    <row r="467" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="467" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D467" s="7"/>
     </row>
-    <row r="468" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="468" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D468" s="7"/>
     </row>
-    <row r="469" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="469" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D469" s="7"/>
     </row>
-    <row r="470" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="470" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D470" s="7"/>
     </row>
-    <row r="471" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="471" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D471" s="7"/>
     </row>
-    <row r="472" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="472" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D472" s="7"/>
     </row>
-    <row r="473" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="473" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D473" s="7"/>
     </row>
-    <row r="474" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="474" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D474" s="7"/>
     </row>
-    <row r="475" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="475" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D475" s="7"/>
     </row>
-    <row r="476" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="476" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D476" s="7"/>
     </row>
-    <row r="477" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="477" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D477" s="7"/>
     </row>
-    <row r="478" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="478" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D478" s="7"/>
     </row>
-    <row r="479" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="479" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D479" s="7"/>
     </row>
-    <row r="480" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="480" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D480" s="7"/>
     </row>
-    <row r="481" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="481" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D481" s="7"/>
     </row>
-    <row r="482" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="482" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D482" s="7"/>
     </row>
-    <row r="483" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="483" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D483" s="7"/>
     </row>
-    <row r="484" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="484" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D484" s="7"/>
     </row>
-    <row r="485" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="485" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D485" s="7"/>
     </row>
-    <row r="486" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="486" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D486" s="7"/>
     </row>
-    <row r="487" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="487" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D487" s="7"/>
     </row>
-    <row r="488" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="488" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D488" s="7"/>
     </row>
-    <row r="489" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="489" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D489" s="7"/>
     </row>
-    <row r="490" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="490" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D490" s="7"/>
     </row>
-    <row r="491" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="491" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D491" s="7"/>
     </row>
-    <row r="492" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="492" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D492" s="7"/>
     </row>
-    <row r="493" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="493" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D493" s="7"/>
     </row>
-    <row r="494" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="494" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D494" s="7"/>
     </row>
-    <row r="495" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="495" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D495" s="7"/>
     </row>
-    <row r="496" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="496" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D496" s="7"/>
     </row>
-    <row r="497" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="497" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D497" s="7"/>
     </row>
-    <row r="498" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="498" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D498" s="7"/>
     </row>
-    <row r="499" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="499" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D499" s="7"/>
     </row>
-    <row r="500" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="500" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D500" s="7"/>
     </row>
-    <row r="501" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="501" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D501" s="7"/>
     </row>
-    <row r="502" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="502" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D502" s="7"/>
     </row>
-    <row r="503" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="503" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D503" s="7"/>
     </row>
-    <row r="504" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="504" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D504" s="7"/>
     </row>
-    <row r="505" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="505" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D505" s="7"/>
     </row>
-    <row r="506" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="506" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D506" s="7"/>
     </row>
-    <row r="507" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="507" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D507" s="7"/>
     </row>
-    <row r="508" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="508" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D508" s="7"/>
     </row>
-    <row r="509" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="509" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D509" s="7"/>
     </row>
-    <row r="510" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="510" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D510" s="7"/>
     </row>
-    <row r="511" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="511" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D511" s="7"/>
     </row>
-    <row r="512" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="512" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D512" s="7"/>
     </row>
-    <row r="513" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="513" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D513" s="7"/>
     </row>
-    <row r="514" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="514" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D514" s="7"/>
     </row>
-    <row r="515" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="515" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D515" s="7"/>
     </row>
-    <row r="516" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="516" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D516" s="7"/>
     </row>
-    <row r="517" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="517" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D517" s="7"/>
     </row>
-    <row r="518" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="518" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D518" s="7"/>
     </row>
-    <row r="519" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="519" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D519" s="7"/>
     </row>
-    <row r="520" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="520" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D520" s="7"/>
     </row>
-    <row r="521" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="521" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D521" s="7"/>
     </row>
-    <row r="522" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="522" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D522" s="7"/>
     </row>
-    <row r="523" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="523" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D523" s="7"/>
     </row>
-    <row r="524" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="524" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D524" s="7"/>
     </row>
-    <row r="525" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="525" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D525" s="7"/>
     </row>
-    <row r="526" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="526" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D526" s="7"/>
     </row>
-    <row r="527" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="527" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D527" s="7"/>
     </row>
-    <row r="528" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="528" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D528" s="7"/>
     </row>
-    <row r="529" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="529" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D529" s="7"/>
     </row>
-    <row r="530" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="530" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D530" s="7"/>
     </row>
-    <row r="531" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="531" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D531" s="7"/>
     </row>
-    <row r="532" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="532" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D532" s="7"/>
     </row>
-    <row r="533" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="533" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D533" s="7"/>
     </row>
-    <row r="534" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="534" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D534" s="7"/>
     </row>
-    <row r="535" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="535" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D535" s="7"/>
     </row>
-    <row r="536" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="536" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D536" s="7"/>
     </row>
-    <row r="537" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="537" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D537" s="7"/>
     </row>
-    <row r="538" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="538" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D538" s="7"/>
     </row>
-    <row r="539" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="539" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D539" s="7"/>
     </row>
-    <row r="540" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="540" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D540" s="7"/>
     </row>
-    <row r="541" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="541" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D541" s="7"/>
     </row>
-    <row r="542" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="542" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D542" s="7"/>
     </row>
-    <row r="543" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="543" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D543" s="7"/>
     </row>
-    <row r="544" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="544" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D544" s="7"/>
     </row>
-    <row r="545" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="545" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D545" s="7"/>
     </row>
-    <row r="546" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="546" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D546" s="7"/>
     </row>
-    <row r="547" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="547" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D547" s="7"/>
     </row>
-    <row r="548" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="548" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D548" s="7"/>
     </row>
-    <row r="549" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="549" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D549" s="7"/>
     </row>
-    <row r="550" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="550" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D550" s="7"/>
     </row>
-    <row r="551" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="551" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D551" s="7"/>
     </row>
-    <row r="552" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="552" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D552" s="7"/>
     </row>
-    <row r="553" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="553" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D553" s="7"/>
     </row>
-    <row r="554" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="554" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D554" s="7"/>
     </row>
-    <row r="555" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="555" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D555" s="7"/>
     </row>
-    <row r="556" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="556" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D556" s="7"/>
     </row>
-    <row r="557" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="557" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D557" s="7"/>
     </row>
-    <row r="558" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="558" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D558" s="7"/>
     </row>
-    <row r="559" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="559" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D559" s="7"/>
     </row>
-    <row r="560" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="560" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D560" s="7"/>
     </row>
-    <row r="561" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="561" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D561" s="7"/>
     </row>
-    <row r="562" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="562" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D562" s="7"/>
     </row>
-    <row r="563" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="563" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D563" s="7"/>
     </row>
-    <row r="564" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="564" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D564" s="7"/>
     </row>
-    <row r="565" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="565" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D565" s="7"/>
     </row>
-    <row r="566" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="566" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D566" s="7"/>
     </row>
-    <row r="567" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="567" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D567" s="7"/>
     </row>
-    <row r="568" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="568" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D568" s="7"/>
     </row>
-    <row r="569" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="569" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D569" s="7"/>
     </row>
-    <row r="570" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="570" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D570" s="7"/>
     </row>
-    <row r="571" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="571" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D571" s="7"/>
     </row>
-    <row r="572" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="572" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D572" s="7"/>
     </row>
-    <row r="573" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="573" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D573" s="7"/>
     </row>
-    <row r="574" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="574" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D574" s="7"/>
     </row>
-    <row r="575" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="575" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D575" s="7"/>
     </row>
-    <row r="576" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="576" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D576" s="7"/>
     </row>
-    <row r="577" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="577" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D577" s="7"/>
     </row>
-    <row r="578" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="578" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D578" s="7"/>
     </row>
-    <row r="579" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="579" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D579" s="7"/>
     </row>
-    <row r="580" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="580" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D580" s="7"/>
     </row>
-    <row r="581" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="581" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D581" s="7"/>
     </row>
-    <row r="582" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="582" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D582" s="7"/>
     </row>
-    <row r="583" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="583" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D583" s="7"/>
     </row>
-    <row r="584" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="584" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D584" s="7"/>
     </row>
-    <row r="585" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="585" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D585" s="7"/>
     </row>
-    <row r="586" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="586" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D586" s="7"/>
     </row>
-    <row r="587" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="587" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D587" s="7"/>
     </row>
-    <row r="588" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="588" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D588" s="7"/>
     </row>
-    <row r="589" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="589" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D589" s="7"/>
     </row>
-    <row r="590" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="590" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D590" s="7"/>
     </row>
-    <row r="591" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="591" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D591" s="7"/>
     </row>
-    <row r="592" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="592" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D592" s="7"/>
     </row>
-    <row r="593" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="593" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D593" s="7"/>
     </row>
-    <row r="594" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="594" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D594" s="7"/>
     </row>
-    <row r="595" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="595" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D595" s="7"/>
     </row>
-    <row r="596" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="596" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D596" s="7"/>
     </row>
-    <row r="597" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="597" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D597" s="7"/>
     </row>
-    <row r="598" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="598" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D598" s="7"/>
     </row>
-    <row r="599" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="599" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D599" s="7"/>
     </row>
-    <row r="600" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="600" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D600" s="7"/>
     </row>
-    <row r="601" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="601" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D601" s="7"/>
     </row>
-    <row r="602" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="602" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D602" s="7"/>
     </row>
-    <row r="603" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="603" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D603" s="7"/>
     </row>
-    <row r="604" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="604" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D604" s="7"/>
     </row>
-    <row r="605" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="605" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D605" s="7"/>
     </row>
-    <row r="606" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="606" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D606" s="7"/>
     </row>
-    <row r="607" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="607" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D607" s="7"/>
     </row>
-    <row r="608" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="608" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D608" s="7"/>
     </row>
-    <row r="609" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="609" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D609" s="7"/>
     </row>
-    <row r="610" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="610" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D610" s="7"/>
     </row>
-    <row r="611" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="611" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D611" s="7"/>
     </row>
-    <row r="612" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="612" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D612" s="7"/>
     </row>
-    <row r="613" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="613" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D613" s="7"/>
     </row>
-    <row r="614" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="614" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D614" s="7"/>
     </row>
-    <row r="615" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="615" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D615" s="7"/>
     </row>
-    <row r="616" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="616" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D616" s="7"/>
     </row>
-    <row r="617" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="617" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D617" s="7"/>
     </row>
-    <row r="618" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="618" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D618" s="7"/>
     </row>
-    <row r="619" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="619" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D619" s="7"/>
     </row>
-    <row r="620" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="620" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D620" s="7"/>
     </row>
-    <row r="621" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="621" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D621" s="7"/>
     </row>
-    <row r="622" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="622" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D622" s="7"/>
     </row>
-    <row r="623" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="623" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D623" s="7"/>
     </row>
-    <row r="624" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="624" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D624" s="7"/>
     </row>
-    <row r="625" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="625" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D625" s="7"/>
     </row>
-    <row r="626" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="626" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D626" s="7"/>
     </row>
-    <row r="627" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="627" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D627" s="7"/>
     </row>
-    <row r="628" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="628" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D628" s="7"/>
     </row>
-    <row r="629" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="629" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D629" s="7"/>
     </row>
-    <row r="630" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="630" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D630" s="7"/>
     </row>
-    <row r="631" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="631" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D631" s="7"/>
     </row>
-    <row r="632" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="632" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D632" s="7"/>
     </row>
-    <row r="633" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="633" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D633" s="7"/>
     </row>
-    <row r="634" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="634" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D634" s="7"/>
     </row>
-    <row r="635" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="635" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D635" s="7"/>
     </row>
-    <row r="636" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="636" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D636" s="7"/>
     </row>
-    <row r="637" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="637" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D637" s="7"/>
     </row>
-    <row r="638" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="638" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D638" s="7"/>
     </row>
-    <row r="639" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="639" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D639" s="7"/>
     </row>
-    <row r="640" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="640" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D640" s="7"/>
     </row>
-    <row r="641" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="641" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D641" s="7"/>
     </row>
-    <row r="642" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="642" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D642" s="7"/>
     </row>
-    <row r="643" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="643" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D643" s="7"/>
     </row>
-    <row r="644" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="644" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D644" s="7"/>
     </row>
-    <row r="645" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="645" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D645" s="7"/>
     </row>
-    <row r="646" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="646" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D646" s="7"/>
     </row>
-    <row r="647" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="647" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D647" s="7"/>
     </row>
-    <row r="648" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="648" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D648" s="7"/>
     </row>
-    <row r="649" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="649" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D649" s="7"/>
     </row>
-    <row r="650" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="650" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D650" s="7"/>
     </row>
-    <row r="651" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="651" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D651" s="7"/>
     </row>
-    <row r="652" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="652" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D652" s="7"/>
     </row>
-    <row r="653" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="653" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D653" s="7"/>
     </row>
-    <row r="654" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="654" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D654" s="7"/>
     </row>
-    <row r="655" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="655" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D655" s="7"/>
     </row>
-    <row r="656" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="656" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D656" s="7"/>
     </row>
-    <row r="657" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="657" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D657" s="7"/>
     </row>
-    <row r="658" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="658" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D658" s="7"/>
     </row>
-    <row r="659" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="659" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D659" s="7"/>
     </row>
-    <row r="660" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="660" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D660" s="7"/>
     </row>
-    <row r="661" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="661" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D661" s="7"/>
     </row>
-    <row r="662" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="662" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D662" s="7"/>
     </row>
-    <row r="663" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="663" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D663" s="7"/>
     </row>
-    <row r="664" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="664" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D664" s="7"/>
     </row>
-    <row r="665" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="665" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D665" s="7"/>
     </row>
-    <row r="666" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="666" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D666" s="7"/>
     </row>
-    <row r="667" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="667" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D667" s="7"/>
     </row>
-    <row r="668" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="668" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D668" s="7"/>
     </row>
-    <row r="669" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="669" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D669" s="7"/>
     </row>
-    <row r="670" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="670" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D670" s="7"/>
     </row>
-    <row r="671" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="671" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D671" s="7"/>
     </row>
-    <row r="672" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="672" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D672" s="7"/>
     </row>
-    <row r="673" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="673" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D673" s="7"/>
     </row>
-    <row r="674" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="674" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D674" s="7"/>
     </row>
-    <row r="675" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="675" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D675" s="7"/>
     </row>
-    <row r="676" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="676" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D676" s="7"/>
     </row>
-    <row r="677" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="677" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D677" s="7"/>
     </row>
-    <row r="678" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="678" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D678" s="7"/>
     </row>
-    <row r="679" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="679" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D679" s="7"/>
     </row>
-    <row r="680" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="680" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D680" s="7"/>
     </row>
-    <row r="681" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="681" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D681" s="7"/>
     </row>
-    <row r="682" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="682" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D682" s="7"/>
     </row>
-    <row r="683" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="683" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D683" s="7"/>
     </row>
-    <row r="684" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="684" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D684" s="7"/>
     </row>
-    <row r="685" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="685" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D685" s="7"/>
     </row>
-    <row r="686" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="686" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D686" s="7"/>
     </row>
-    <row r="687" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="687" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D687" s="7"/>
     </row>
-    <row r="688" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="688" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D688" s="7"/>
     </row>
-    <row r="689" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="689" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D689" s="7"/>
     </row>
-    <row r="690" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="690" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D690" s="7"/>
     </row>
-    <row r="691" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="691" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D691" s="7"/>
     </row>
-    <row r="692" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="692" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D692" s="7"/>
     </row>
-    <row r="693" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="693" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D693" s="7"/>
     </row>
-    <row r="694" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="694" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D694" s="7"/>
     </row>
-    <row r="695" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="695" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D695" s="7"/>
     </row>
-    <row r="696" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="696" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D696" s="7"/>
     </row>
-    <row r="697" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="697" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D697" s="7"/>
     </row>
-    <row r="698" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="698" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D698" s="7"/>
     </row>
-    <row r="699" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="699" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D699" s="7"/>
     </row>
-    <row r="700" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="700" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D700" s="7"/>
     </row>
-    <row r="701" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="701" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D701" s="7"/>
     </row>
-    <row r="702" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="702" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D702" s="7"/>
     </row>
-    <row r="703" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="703" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D703" s="7"/>
     </row>
-    <row r="704" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="704" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D704" s="7"/>
     </row>
-    <row r="705" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="705" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D705" s="7"/>
     </row>
-    <row r="706" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="706" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D706" s="7"/>
     </row>
-    <row r="707" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="707" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D707" s="7"/>
     </row>
-    <row r="708" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="708" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D708" s="7"/>
     </row>
-    <row r="709" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="709" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D709" s="7"/>
     </row>
-    <row r="710" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="710" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D710" s="7"/>
     </row>
-    <row r="711" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="711" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D711" s="7"/>
     </row>
-    <row r="712" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="712" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D712" s="7"/>
     </row>
-    <row r="713" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="713" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D713" s="7"/>
     </row>
-    <row r="714" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="714" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D714" s="7"/>
     </row>
-    <row r="715" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="715" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D715" s="7"/>
     </row>
-    <row r="716" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="716" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D716" s="7"/>
     </row>
-    <row r="717" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="717" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D717" s="7"/>
     </row>
-    <row r="718" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="718" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D718" s="7"/>
     </row>
-    <row r="719" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="719" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D719" s="7"/>
     </row>
-    <row r="720" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="720" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D720" s="7"/>
     </row>
-    <row r="721" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="721" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D721" s="7"/>
     </row>
-    <row r="722" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="722" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D722" s="7"/>
     </row>
-    <row r="723" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="723" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D723" s="7"/>
     </row>
-    <row r="724" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="724" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D724" s="7"/>
     </row>
-    <row r="725" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="725" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D725" s="7"/>
     </row>
-    <row r="726" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="726" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D726" s="7"/>
     </row>
-    <row r="727" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="727" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D727" s="7"/>
     </row>
-    <row r="728" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="728" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D728" s="7"/>
     </row>
-    <row r="729" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="729" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D729" s="7"/>
     </row>
-    <row r="730" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="730" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D730" s="7"/>
     </row>
-    <row r="731" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="731" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D731" s="7"/>
     </row>
-    <row r="732" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="732" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D732" s="7"/>
     </row>
-    <row r="733" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="733" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D733" s="7"/>
     </row>
-    <row r="734" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="734" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D734" s="7"/>
     </row>
-    <row r="735" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="735" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D735" s="7"/>
     </row>
-    <row r="736" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="736" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D736" s="7"/>
     </row>
-    <row r="737" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="737" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D737" s="7"/>
     </row>
-    <row r="738" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="738" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D738" s="7"/>
     </row>
-    <row r="739" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="739" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D739" s="7"/>
     </row>
-    <row r="740" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="740" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D740" s="7"/>
     </row>
-    <row r="741" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="741" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D741" s="7"/>
     </row>
-    <row r="742" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="742" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D742" s="7"/>
     </row>
-    <row r="743" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="743" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D743" s="7"/>
     </row>
-    <row r="744" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="744" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D744" s="7"/>
     </row>
-    <row r="745" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="745" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D745" s="7"/>
     </row>
-    <row r="746" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="746" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D746" s="7"/>
     </row>
-    <row r="747" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="747" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D747" s="7"/>
     </row>
-    <row r="748" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="748" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D748" s="7"/>
     </row>
-    <row r="749" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="749" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D749" s="7"/>
     </row>
-    <row r="750" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="750" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D750" s="7"/>
     </row>
-    <row r="751" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="751" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D751" s="7"/>
     </row>
-    <row r="752" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="752" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D752" s="7"/>
     </row>
-    <row r="753" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="753" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D753" s="7"/>
     </row>
-    <row r="754" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="754" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D754" s="7"/>
     </row>
-    <row r="755" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="755" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D755" s="7"/>
     </row>
-    <row r="756" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="756" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D756" s="7"/>
     </row>
-    <row r="757" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="757" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D757" s="7"/>
     </row>
-    <row r="758" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="758" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D758" s="7"/>
     </row>
-    <row r="759" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="759" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D759" s="7"/>
     </row>
-    <row r="760" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="760" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D760" s="7"/>
     </row>
-    <row r="761" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="761" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D761" s="7"/>
     </row>
-    <row r="762" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="762" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D762" s="7"/>
     </row>
-    <row r="763" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="763" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D763" s="7"/>
     </row>
-    <row r="764" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="764" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D764" s="7"/>
     </row>
-    <row r="765" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="765" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D765" s="7"/>
     </row>
-    <row r="766" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="766" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D766" s="7"/>
     </row>
-    <row r="767" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="767" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D767" s="7"/>
     </row>
-    <row r="768" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="768" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D768" s="7"/>
     </row>
-    <row r="769" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="769" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D769" s="7"/>
     </row>
-    <row r="770" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="770" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D770" s="7"/>
     </row>
-    <row r="771" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="771" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D771" s="7"/>
     </row>
-    <row r="772" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="772" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D772" s="7"/>
     </row>
-    <row r="773" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="773" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D773" s="7"/>
     </row>
-    <row r="774" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="774" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D774" s="7"/>
     </row>
-    <row r="775" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="775" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D775" s="7"/>
     </row>
-    <row r="776" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="776" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D776" s="7"/>
     </row>
-    <row r="777" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="777" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D777" s="7"/>
     </row>
-    <row r="778" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="778" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D778" s="7"/>
     </row>
-    <row r="779" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="779" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D779" s="7"/>
     </row>
-    <row r="780" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="780" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D780" s="7"/>
     </row>
-    <row r="781" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="781" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D781" s="7"/>
     </row>
-    <row r="782" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="782" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D782" s="7"/>
     </row>
-    <row r="783" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="783" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D783" s="7"/>
     </row>
-    <row r="784" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="784" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D784" s="7"/>
     </row>
-    <row r="785" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="785" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D785" s="7"/>
     </row>
-    <row r="786" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="786" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D786" s="7"/>
     </row>
-    <row r="787" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="787" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D787" s="7"/>
     </row>
-    <row r="788" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="788" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D788" s="7"/>
     </row>
-    <row r="789" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="789" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D789" s="7"/>
     </row>
-    <row r="790" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="790" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D790" s="7"/>
     </row>
-    <row r="791" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="791" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D791" s="7"/>
     </row>
-    <row r="792" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="792" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D792" s="7"/>
     </row>
-    <row r="793" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="793" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D793" s="7"/>
     </row>
-    <row r="794" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="794" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D794" s="7"/>
     </row>
-    <row r="795" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="795" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D795" s="7"/>
     </row>
-    <row r="796" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="796" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D796" s="7"/>
     </row>
-    <row r="797" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="797" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D797" s="7"/>
     </row>
-    <row r="798" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="798" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D798" s="7"/>
     </row>
-    <row r="799" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="799" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D799" s="7"/>
     </row>
-    <row r="800" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="800" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D800" s="7"/>
     </row>
-    <row r="801" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="801" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D801" s="7"/>
     </row>
-    <row r="802" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="802" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D802" s="7"/>
     </row>
-    <row r="803" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="803" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D803" s="7"/>
     </row>
-    <row r="804" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="804" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D804" s="7"/>
     </row>
-    <row r="805" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="805" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D805" s="7"/>
     </row>
-    <row r="806" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="806" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D806" s="7"/>
     </row>
-    <row r="807" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="807" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D807" s="7"/>
     </row>
-    <row r="808" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="808" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D808" s="7"/>
     </row>
-    <row r="809" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="809" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D809" s="7"/>
     </row>
-    <row r="810" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="810" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D810" s="7"/>
     </row>
-    <row r="811" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="811" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D811" s="7"/>
     </row>
-    <row r="812" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="812" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D812" s="7"/>
     </row>
-    <row r="813" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="813" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D813" s="7"/>
     </row>
-    <row r="814" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="814" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D814" s="7"/>
     </row>
-    <row r="815" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="815" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D815" s="7"/>
     </row>
-    <row r="816" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="816" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D816" s="7"/>
     </row>
-    <row r="817" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="817" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D817" s="7"/>
     </row>
-    <row r="818" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="818" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D818" s="7"/>
     </row>
-    <row r="819" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="819" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D819" s="7"/>
     </row>
-    <row r="820" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="820" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D820" s="7"/>
     </row>
-    <row r="821" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="821" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D821" s="7"/>
     </row>
-    <row r="822" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="822" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D822" s="7"/>
     </row>
-    <row r="823" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="823" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D823" s="7"/>
     </row>
-    <row r="824" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="824" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D824" s="7"/>
     </row>
-    <row r="825" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="825" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D825" s="7"/>
     </row>
-    <row r="826" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="826" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D826" s="7"/>
     </row>
-    <row r="827" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="827" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D827" s="7"/>
     </row>
-    <row r="828" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="828" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D828" s="7"/>
     </row>
-    <row r="829" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="829" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D829" s="7"/>
     </row>
-    <row r="830" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="830" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D830" s="7"/>
     </row>
-    <row r="831" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="831" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D831" s="7"/>
     </row>
-    <row r="832" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="832" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D832" s="7"/>
     </row>
-    <row r="833" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="833" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D833" s="7"/>
     </row>
-    <row r="834" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="834" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D834" s="7"/>
     </row>
-    <row r="835" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="835" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D835" s="7"/>
     </row>
-    <row r="836" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="836" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D836" s="7"/>
     </row>
-    <row r="837" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="837" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D837" s="7"/>
     </row>
-    <row r="838" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="838" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D838" s="7"/>
     </row>
-    <row r="839" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="839" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D839" s="7"/>
     </row>
-    <row r="840" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="840" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D840" s="7"/>
     </row>
-    <row r="841" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="841" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D841" s="7"/>
     </row>
-    <row r="842" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="842" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D842" s="7"/>
     </row>
-    <row r="843" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="843" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D843" s="7"/>
     </row>
-    <row r="844" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="844" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D844" s="7"/>
     </row>
-    <row r="845" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="845" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D845" s="7"/>
     </row>
-    <row r="846" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="846" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D846" s="7"/>
     </row>
-    <row r="847" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="847" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D847" s="7"/>
     </row>
-    <row r="848" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="848" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D848" s="7"/>
     </row>
-    <row r="849" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="849" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D849" s="7"/>
     </row>
-    <row r="850" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="850" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D850" s="7"/>
     </row>
-    <row r="851" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="851" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D851" s="7"/>
     </row>
-    <row r="852" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="852" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D852" s="7"/>
     </row>
-    <row r="853" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="853" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D853" s="7"/>
     </row>
-    <row r="854" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="854" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D854" s="7"/>
     </row>
-    <row r="855" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="855" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D855" s="7"/>
     </row>
-    <row r="856" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="856" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D856" s="7"/>
     </row>
-    <row r="857" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="857" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D857" s="7"/>
     </row>
-    <row r="858" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="858" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D858" s="7"/>
     </row>
-    <row r="859" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="859" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D859" s="7"/>
     </row>
-    <row r="860" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="860" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D860" s="7"/>
     </row>
-    <row r="861" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="861" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D861" s="7"/>
     </row>
-    <row r="862" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="862" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D862" s="7"/>
     </row>
-    <row r="863" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="863" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D863" s="7"/>
     </row>
-    <row r="864" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="864" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D864" s="7"/>
     </row>
-    <row r="865" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="865" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D865" s="7"/>
     </row>
-    <row r="866" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="866" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D866" s="7"/>
     </row>
-    <row r="867" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="867" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D867" s="7"/>
     </row>
-    <row r="868" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="868" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D868" s="7"/>
     </row>
-    <row r="869" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="869" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D869" s="7"/>
     </row>
-    <row r="870" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="870" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D870" s="7"/>
     </row>
-    <row r="871" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="871" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D871" s="7"/>
     </row>
-    <row r="872" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="872" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D872" s="7"/>
     </row>
-    <row r="873" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="873" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D873" s="7"/>
     </row>
-    <row r="874" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="874" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D874" s="7"/>
     </row>
-    <row r="875" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="875" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D875" s="7"/>
     </row>
-    <row r="876" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="876" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D876" s="7"/>
     </row>
-    <row r="877" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="877" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D877" s="7"/>
     </row>
-    <row r="878" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="878" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D878" s="7"/>
     </row>
-    <row r="879" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="879" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D879" s="7"/>
     </row>
-    <row r="880" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="880" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D880" s="7"/>
     </row>
-    <row r="881" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="881" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D881" s="7"/>
     </row>
-    <row r="882" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="882" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D882" s="7"/>
     </row>
-    <row r="883" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="883" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D883" s="7"/>
     </row>
-    <row r="884" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="884" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D884" s="7"/>
     </row>
-    <row r="885" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="885" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D885" s="7"/>
     </row>
-    <row r="886" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="886" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D886" s="7"/>
     </row>
-    <row r="887" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="887" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D887" s="7"/>
     </row>
-    <row r="888" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="888" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D888" s="7"/>
     </row>
-    <row r="889" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="889" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D889" s="7"/>
     </row>
-    <row r="890" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="890" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D890" s="7"/>
     </row>
-    <row r="891" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="891" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D891" s="7"/>
     </row>
-    <row r="892" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="892" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D892" s="7"/>
     </row>
-    <row r="893" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="893" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D893" s="7"/>
     </row>
-    <row r="894" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="894" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D894" s="7"/>
     </row>
-    <row r="895" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="895" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D895" s="7"/>
     </row>
-    <row r="896" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="896" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D896" s="7"/>
     </row>
-    <row r="897" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="897" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D897" s="7"/>
     </row>
-    <row r="898" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="898" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D898" s="7"/>
     </row>
-    <row r="899" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="899" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D899" s="7"/>
     </row>
-    <row r="900" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="900" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D900" s="7"/>
     </row>
-    <row r="901" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="901" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D901" s="7"/>
     </row>
-    <row r="902" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="902" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D902" s="7"/>
     </row>
-    <row r="903" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="903" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D903" s="7"/>
     </row>
-    <row r="904" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="904" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D904" s="7"/>
     </row>
-    <row r="905" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="905" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D905" s="7"/>
     </row>
-    <row r="906" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="906" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D906" s="7"/>
     </row>
-    <row r="907" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="907" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D907" s="7"/>
     </row>
-    <row r="908" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="908" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D908" s="7"/>
     </row>
-    <row r="909" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="909" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D909" s="7"/>
     </row>
-    <row r="910" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="910" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D910" s="7"/>
     </row>
-    <row r="911" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="911" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D911" s="7"/>
     </row>
-    <row r="912" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="912" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D912" s="7"/>
     </row>
-    <row r="913" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="913" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D913" s="7"/>
     </row>
-    <row r="914" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="914" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D914" s="7"/>
     </row>
-    <row r="915" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="915" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D915" s="7"/>
     </row>
-    <row r="916" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="916" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D916" s="7"/>
     </row>
-    <row r="917" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="917" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D917" s="7"/>
     </row>
-    <row r="918" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="918" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D918" s="7"/>
     </row>
-    <row r="919" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="919" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D919" s="7"/>
     </row>
-    <row r="920" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="920" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D920" s="7"/>
     </row>
-    <row r="921" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="921" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D921" s="7"/>
     </row>
-    <row r="922" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="922" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D922" s="7"/>
     </row>
-    <row r="923" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="923" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D923" s="7"/>
     </row>
-    <row r="924" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="924" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D924" s="7"/>
     </row>
-    <row r="925" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="925" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D925" s="7"/>
     </row>
-    <row r="926" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="926" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D926" s="7"/>
     </row>
-    <row r="927" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="927" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D927" s="7"/>
     </row>
-    <row r="928" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="928" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D928" s="7"/>
     </row>
-    <row r="929" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="929" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D929" s="7"/>
     </row>
-    <row r="930" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="930" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D930" s="7"/>
     </row>
-    <row r="931" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="931" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D931" s="7"/>
     </row>
-    <row r="932" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="932" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D932" s="7"/>
     </row>
-    <row r="933" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="933" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D933" s="7"/>
     </row>
-    <row r="934" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="934" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D934" s="7"/>
     </row>
-    <row r="935" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="935" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D935" s="7"/>
     </row>
-    <row r="936" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="936" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D936" s="7"/>
     </row>
-    <row r="937" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="937" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D937" s="7"/>
     </row>
-    <row r="938" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="938" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D938" s="7"/>
     </row>
-    <row r="939" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="939" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D939" s="7"/>
     </row>
-    <row r="940" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="940" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D940" s="7"/>
     </row>
-    <row r="941" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="941" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D941" s="7"/>
     </row>
-    <row r="942" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="942" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D942" s="7"/>
     </row>
-    <row r="943" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="943" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D943" s="7"/>
     </row>
-    <row r="944" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="944" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D944" s="7"/>
     </row>
-    <row r="945" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="945" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D945" s="7"/>
     </row>
-    <row r="946" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="946" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D946" s="7"/>
     </row>
-    <row r="947" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="947" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D947" s="7"/>
     </row>
-    <row r="948" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="948" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D948" s="7"/>
     </row>
-    <row r="949" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="949" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D949" s="7"/>
     </row>
-    <row r="950" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="950" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D950" s="7"/>
     </row>
-    <row r="951" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="951" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D951" s="7"/>
     </row>
-    <row r="952" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="952" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D952" s="7"/>
     </row>
-    <row r="953" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="953" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D953" s="7"/>
     </row>
-    <row r="954" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="954" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D954" s="7"/>
     </row>
-    <row r="955" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="955" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D955" s="7"/>
     </row>
-    <row r="956" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="956" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D956" s="7"/>
     </row>
-    <row r="957" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="957" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D957" s="7"/>
     </row>
-    <row r="958" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="958" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D958" s="7"/>
     </row>
-    <row r="959" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="959" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D959" s="7"/>
     </row>
-    <row r="960" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="960" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D960" s="7"/>
     </row>
-    <row r="961" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="961" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D961" s="7"/>
     </row>
-    <row r="962" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="962" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D962" s="7"/>
     </row>
-    <row r="963" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="963" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D963" s="7"/>
     </row>
-    <row r="964" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="964" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D964" s="7"/>
     </row>
-    <row r="965" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="965" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D965" s="7"/>
     </row>
-    <row r="966" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="966" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D966" s="7"/>
     </row>
-    <row r="967" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="967" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D967" s="7"/>
     </row>
-    <row r="968" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="968" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D968" s="7"/>
     </row>
-    <row r="969" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="969" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D969" s="7"/>
     </row>
-    <row r="970" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="970" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D970" s="7"/>
     </row>
-    <row r="971" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="971" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D971" s="7"/>
     </row>
-    <row r="972" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="972" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D972" s="7"/>
     </row>
-    <row r="973" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="973" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D973" s="7"/>
     </row>
-    <row r="974" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="974" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D974" s="7"/>
     </row>
-    <row r="975" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="975" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D975" s="7"/>
     </row>
-    <row r="976" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="976" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D976" s="7"/>
     </row>
-    <row r="977" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="977" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D977" s="7"/>
     </row>
-    <row r="978" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="978" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D978" s="7"/>
     </row>
-    <row r="979" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="979" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D979" s="7"/>
     </row>
-    <row r="980" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="980" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D980" s="7"/>
     </row>
-    <row r="981" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="981" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D981" s="7"/>
     </row>
-    <row r="982" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="982" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D982" s="7"/>
     </row>
-    <row r="983" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="983" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D983" s="7"/>
     </row>
-    <row r="984" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="984" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D984" s="7"/>
     </row>
-    <row r="985" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="985" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D985" s="7"/>
     </row>
-    <row r="986" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="986" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D986" s="7"/>
     </row>
-    <row r="987" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="987" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D987" s="7"/>
     </row>
-    <row r="988" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="988" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D988" s="7"/>
     </row>
-    <row r="989" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="989" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D989" s="7"/>
     </row>
-    <row r="990" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="990" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D990" s="7"/>
     </row>
-    <row r="991" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="991" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D991" s="7"/>
     </row>
-    <row r="992" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="992" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D992" s="7"/>
     </row>
-    <row r="993" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="993" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D993" s="7"/>
     </row>
-    <row r="994" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="994" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D994" s="7"/>
     </row>
-    <row r="995" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="995" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D995" s="7"/>
     </row>
-    <row r="996" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="996" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D996" s="7"/>
     </row>
-    <row r="997" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="997" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D997" s="7"/>
     </row>
-    <row r="998" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="998" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D998" s="7"/>
     </row>
-    <row r="999" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="999" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D999" s="7"/>
     </row>
-    <row r="1000" spans="4:4" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1000" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D1000" s="7"/>
     </row>
   </sheetData>
